--- a/data/logs.xlsx
+++ b/data/logs.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +57,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,11 +450,6 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>time_Stamp</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
           <t>time_stamp</t>
         </is>
       </c>
@@ -464,8 +463,7 @@
           <t>Checked availability of peanut butter: Available, Warehouse count: 200, Requested: 10</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>2025-03-23 13:23:39</t>
         </is>
@@ -480,8 +478,7 @@
           <t>Assigned task to worker for acquiring 10 units of peanut butter</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>2025-03-23 16:47:31</t>
         </is>
@@ -496,10 +493,211 @@
           <t>Sent email to worker about acquiring peanut butter</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>2025-03-23 16:47:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Checked availability for 10 units of peanut butter.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2025-03-26 20:04:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Assigned worker to restock peanut butter.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2025-03-26 20:04:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Sent email to assigned worker regarding peanut butter restock.</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2025-03-26 20:04:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Checked availability of Peanut Butter, current warehouse quantity is 5, below reorder level.</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2025-03-28 22:58:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Checked peanut butter stock availability on shelf: Stock available</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>45744.96786957176</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Low stock on shelf for Peanut Butter. No available workers found for replenishment.</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>45744.96941818287</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>No available workers for restocking peanut butter</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>45744.97052444444</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Assigned Jayesh to restock Peanut Butter</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2025-03-28 23:18:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Checked shelf availability for Peanut Butter</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="n">
+        <v>45744.97399758102</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Checked Warehouse stock for Peanut Butter</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="n">
+        <v>45744.97399758102</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Assigned Worker Jayesh (ID: 2) to refill Peanut Butter</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="n">
+        <v>45744.97399758102</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Sent email notification to jayesh281998@gmail.com</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="n">
+        <v>45744.97399758102</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Checked shelf stock for item ID 101 (Peanut Butter): Current stock = 20</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2025-03-28 23:31:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Assigned worker ID 2 - Jayesh to replenish the shelf</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2025-03-28 23:31:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Sent email notification to Jayesh</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2025-03-28 23:31:26</t>
         </is>
       </c>
     </row>
